--- a/IT_BDM/WebRoot/files/import/zmz/网点呼叫系统.xlsx
+++ b/IT_BDM/WebRoot/files/import/zmz/网点呼叫系统.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>负责签订合同人</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -106,6 +106,58 @@
   </si>
   <si>
     <t>操作类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部大区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田片区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庙分部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东深圳公司福田区保税分部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪葛华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市福田保税区桂花路西红树福苑4栋11铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6155；6156</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐璐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册/维护/注销</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,7 +251,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1"/>
@@ -515,15 +581,30 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9" style="4"/>
+    <col min="22" max="22" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +650,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -592,71 +673,72 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>42726</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2">
-        <v>51</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>42686</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4">
+        <v>13760489302</v>
+      </c>
+      <c r="J2" s="4">
+        <v>13760489302</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4">
+        <v>518275</v>
+      </c>
+      <c r="M2" s="4">
+        <v>61884209</v>
+      </c>
+      <c r="N2" s="4">
+        <v>6149</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6150</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4">
+        <f>WEEKNUM(B2)</f>
+        <v>46</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -667,5 +749,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>